--- a/Viestittely testitapaus UI.xlsx
+++ b/Viestittely testitapaus UI.xlsx
@@ -11,7 +11,9 @@
     <sheet name="Testisuunnitelma" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Testitapaus Kotisivu" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Testitapaus Lähetäsivu salaus" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Testitapaus Vastaanota salauttu" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Testitapaus Lähetäsivu lähetä I" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Testitapaus Vastaanota salauttu" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Testitapaus Vastaanota IP-viest" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="150">
   <si>
     <t xml:space="preserve">1. TESTAUKSET TAVOITTEET</t>
   </si>
@@ -385,10 +387,28 @@
     <t xml:space="preserve">Paina Lähetä-painiketta</t>
   </si>
   <si>
+    <t xml:space="preserve">Ohjelma kysyy, lähetetäänkö viesti IP-osoitteeseen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vastaa ei, joka on oletuksena, IP-osoite kysymykseen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salattu viesti, avain-tiedostot muodostuvat valittuun kansioon</t>
   </si>
   <si>
-    <t xml:space="preserve">UI_3</t>
+    <t xml:space="preserve">Vastaanottaja käynnistää IP-osoitteensa ja portinsa kuuntelun, ennen kuin viesti lähetetään IP:n kautta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansio = kansio, jossa viestittely-ohjelma on käynnistetty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vastaa kyllä, IP-osoite kysymykseen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmd-ikkunassa, ohjelma lähettää viestin vastaanottajalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_4</t>
   </si>
   <si>
     <t xml:space="preserve">Salatun viestin avaus</t>
@@ -432,6 +452,48 @@
   <si>
     <t xml:space="preserve">Salattu viesti ilmestyy purettuna viesti-kenttään</t>
   </si>
+  <si>
+    <t xml:space="preserve">UI_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salatun viestin vastaanotto IP-osoitteen kautta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viestin vastaanottaja kertoo lähettäjälle IP-osoitteensa ja portin, jota lähettäjä voi kokeilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansio = kansio, jossa viestittely ohjelma on käynnistetty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viestin lähettäjä odottaa, kunnes vastaanottava socket IP -osoite ja portti kuuntelevat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klikkaa ”IP-vastaanotto”-painiketta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-osoitteen ja portin kuuntelu käynnistyy cmd-ikkunassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viestin vastaanotto odottaa 7 sekuntia tai kun viesti saapuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmd-ikkuna odottaa 7 sekuntia tai niin kauan kun viesti saapuu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viestin vastaanotetaan IP-osoitteeseen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmd-ikkunassa näkyy, montako prosenttia viestistä otettiin vastaan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valitse kansio, johon  Viestittely-ohjelman on asennettu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakemisto-valinta ikkuna ehdottaa oletuksena ohjelman kotikansiota. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohjelman koti kansio ilmestyy kaikkiin kansiopolut-kenttiin</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +504,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -497,6 +559,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -579,7 +646,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,6 +732,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1590,10 +1661,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2040,7 +2111,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="n">
         <v>8</v>
       </c>
@@ -2063,8 +2134,31 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
     </row>
+    <row r="26" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="65">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -2126,6 +2220,10 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" display="Tallennuskansio = C:/tekstit"/>
@@ -2145,10 +2243,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2162,14 +2260,14 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2298,7 +2396,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="n">
         <v>1</v>
       </c>
@@ -2311,13 +2409,13 @@
       <c r="F9" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="n">
@@ -2441,11 +2539,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
@@ -2514,7 +2612,7 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12" t="s">
@@ -2533,11 +2631,593 @@
         <v>5</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="2" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="13" t="n">
+        <v>45158</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>129</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
@@ -2661,6 +3341,548 @@
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" display="C:\tekstit"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="2" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="13" t="n">
+        <v>45158</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
